--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-parent-organization-role-practitioner.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-parent-organization-role-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="245">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28</t>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>This extension specifies the parent organization, the required role of the organization and the role of the practitioner in process authorization. It is used within a Coding to indicate both a specific parent organization (by its identifier), a role (by a coding), and a practitioner role. The parent organization is identified with an Identifier using the system `http://dsf.dev/sid/organization-identifier`, and the roles are specified as a Coding. This enables precise authorization of parent organization-role combinations with a practitioner for requester roles in process authorization extensions.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -286,6 +283,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -465,7 +465,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -553,7 +553,7 @@
     <t>Extension.extension.value[x].assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t>Extension.extension:practitionerRole.value[x]</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://dsf.dev/fhir/ValueSet/practitioner-role</t>
   </si>
   <si>
     <t>Extension.extension:practitionerRole.value[x].id</t>
@@ -992,57 +998,55 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>12</v>
@@ -1050,18 +1054,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1080,163 +1084,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.09375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.82421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="151.1953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="147.375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="39.19921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="86.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1244,28 +1248,28 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1316,19 +1320,19 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
+      <c r="AI2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>20</v>
@@ -1336,10 +1340,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1347,10 +1351,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1362,13 +1366,13 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1419,30 +1423,30 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1450,10 +1454,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1468,10 +1472,10 @@
         <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1525,16 +1529,16 @@
         <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -1545,7 +1549,7 @@
         <v>94</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>95</v>
@@ -1555,10 +1559,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1573,10 +1577,10 @@
         <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1630,16 +1634,16 @@
         <v>93</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -1658,10 +1662,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1673,13 +1677,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1730,22 +1734,22 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1761,10 +1765,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -1838,19 +1842,19 @@
         <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1866,10 +1870,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -1943,10 +1947,10 @@
         <v>111</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -1971,10 +1975,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2046,10 +2050,10 @@
         <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -2074,10 +2078,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2089,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2146,22 +2150,22 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -2177,10 +2181,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2254,19 +2258,19 @@
         <v>93</v>
       </c>
       <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -2282,10 +2286,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2361,10 +2365,10 @@
         <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2389,10 +2393,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2468,10 +2472,10 @@
         <v>147</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2496,10 +2500,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2575,10 +2579,10 @@
         <v>156</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2603,10 +2607,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2618,7 +2622,7 @@
         <v>126</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>160</v>
@@ -2680,10 +2684,10 @@
         <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2708,10 +2712,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2783,10 +2787,10 @@
         <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2811,10 +2815,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2888,10 +2892,10 @@
         <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -2908,7 +2912,7 @@
         <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>182</v>
@@ -2918,10 +2922,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -2936,10 +2940,10 @@
         <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2993,16 +2997,16 @@
         <v>93</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -3021,10 +3025,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3036,13 +3040,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3093,22 +3097,22 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -3124,10 +3128,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3201,19 +3205,19 @@
         <v>93</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21">
@@ -3229,10 +3233,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3306,10 +3310,10 @@
         <v>111</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -3334,10 +3338,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3409,10 +3413,10 @@
         <v>118</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -3437,10 +3441,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3452,13 +3456,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3509,22 +3513,22 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -3540,10 +3544,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3617,19 +3621,19 @@
         <v>93</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -3645,10 +3649,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3724,10 +3728,10 @@
         <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -3752,10 +3756,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3767,7 +3771,7 @@
         <v>126</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>200</v>
@@ -3829,10 +3833,10 @@
         <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -3857,10 +3861,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -3934,10 +3938,10 @@
         <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -3962,10 +3966,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -3977,7 +3981,7 @@
         <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>214</v>
@@ -4039,10 +4043,10 @@
         <v>217</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4067,10 +4071,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4146,10 +4150,10 @@
         <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -4166,7 +4170,7 @@
         <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>229</v>
@@ -4176,10 +4180,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4194,10 +4198,10 @@
         <v>89</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4251,16 +4255,16 @@
         <v>93</v>
       </c>
       <c r="AG30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH30" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
@@ -4279,10 +4283,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4294,13 +4298,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4351,22 +4355,22 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -4382,10 +4386,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4459,19 +4463,19 @@
         <v>93</v>
       </c>
       <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -4487,10 +4491,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -4564,10 +4568,10 @@
         <v>111</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -4592,10 +4596,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -4640,13 +4644,11 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -4667,10 +4669,10 @@
         <v>118</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -4684,7 +4686,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>121</v>
@@ -4695,10 +4697,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -4710,13 +4712,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4767,27 +4769,27 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>87</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>123</v>
@@ -4798,10 +4800,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -4875,24 +4877,24 @@
         <v>93</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>149</v>
@@ -4903,10 +4905,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -4982,10 +4984,10 @@
         <v>196</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -4999,7 +5001,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>199</v>
@@ -5010,10 +5012,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5025,7 +5027,7 @@
         <v>126</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>200</v>
@@ -5087,10 +5089,10 @@
         <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -5104,7 +5106,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>206</v>
@@ -5115,10 +5117,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5192,10 +5194,10 @@
         <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -5209,7 +5211,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>213</v>
@@ -5220,10 +5222,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5235,7 +5237,7 @@
         <v>126</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>214</v>
@@ -5297,10 +5299,10 @@
         <v>217</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -5314,7 +5316,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>220</v>
@@ -5325,10 +5327,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5404,10 +5406,10 @@
         <v>226</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -5432,10 +5434,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -5509,10 +5511,10 @@
         <v>111</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -5537,10 +5539,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -5552,7 +5554,7 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>116</v>
@@ -5612,10 +5614,10 @@
         <v>118</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>

--- a/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-parent-organization-role-practitioner.xlsx
+++ b/docs/src/.vuepress/public/fhir/ImplementationGuide/dev.dsf/StructureDefinition-extension-process-authorization-parent-organization-role-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27</t>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>Publisher</t>
